--- a/First_Follow.xlsx
+++ b/First_Follow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadio\OneDrive\Área de Trabalho\Facul\COMP\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8695DCE-504D-424D-97AC-B7FA419502E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED967CC-EABC-4444-9B4C-B2A8D382C131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A2150D8B-7879-4D64-BED4-E4133F5879B3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>Simbolo</t>
   </si>
@@ -96,6 +96,93 @@
   </si>
   <si>
     <t>ConteudoCondicao</t>
+  </si>
+  <si>
+    <t>FinalCond</t>
+  </si>
+  <si>
+    <t>ConteudoFor</t>
+  </si>
+  <si>
+    <t>ValorInicial</t>
+  </si>
+  <si>
+    <t>DadosAtrib</t>
+  </si>
+  <si>
+    <t>Increm_decrem</t>
+  </si>
+  <si>
+    <t>fim_linha</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>par_esq</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>do, if, for</t>
+  </si>
+  <si>
+    <t>col_esq</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>op_relacional</t>
+  </si>
+  <si>
+    <t>id, string, int, float, par_esq</t>
+  </si>
+  <si>
+    <t>op_relacional, op_aritmetico, or, and, col_esq</t>
+  </si>
+  <si>
+    <t>ConteudoCondicao'</t>
+  </si>
+  <si>
+    <t>fim_linha, else</t>
+  </si>
+  <si>
+    <t>atribuição</t>
+  </si>
+  <si>
+    <t>id, int, float</t>
+  </si>
+  <si>
+    <t>incremento, decremento</t>
+  </si>
+  <si>
+    <t>id, string, int, float, par_esq, fim_linha, op_aritmetico</t>
+  </si>
+  <si>
+    <t>idInt, idFloat, idBoolean, idString</t>
+  </si>
+  <si>
+    <t>idInt, idFloat, idBoolean, idString, id, output, do, if, for</t>
+  </si>
+  <si>
+    <t>par_dir</t>
+  </si>
+  <si>
+    <t>virgula</t>
+  </si>
+  <si>
+    <t>$, col_dir</t>
+  </si>
+  <si>
+    <t>par_dir, $, col_dir</t>
+  </si>
+  <si>
+    <t>fim_linha, else, par_dir, virgula, $, col_dir</t>
   </si>
 </sst>
 </file>
@@ -119,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -156,19 +243,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -205,11 +279,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,10 +342,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -566,27 +697,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA08CFE-D3E1-4620-88B7-74C5EB954786}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
@@ -594,174 +725,308 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1010,20 +1275,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="97651425-3362-4ddf-9ec3-4160ff4b44c4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="97651425-3362-4ddf-9ec3-4160ff4b44c4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1046,14 +1311,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D38FDB-1564-4AD3-8645-DAB9058AC7DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5125838C-61C7-420B-8823-3EAD54EC538B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="97651425-3362-4ddf-9ec3-4160ff4b44c4"/>
@@ -1068,4 +1325,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D38FDB-1564-4AD3-8645-DAB9058AC7DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>